--- a/Code/Results/Cases/Case_2_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70475409151904</v>
+        <v>7.76996414094062</v>
       </c>
       <c r="C2">
-        <v>7.135360208381561</v>
+        <v>5.950183189536349</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.63764158527891</v>
+        <v>13.15868052146605</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>15.14253788438728</v>
+        <v>22.48454416139465</v>
       </c>
       <c r="H2">
-        <v>7.582668481927988</v>
+        <v>12.89568284388557</v>
       </c>
       <c r="I2">
-        <v>11.18079884855627</v>
+        <v>18.51254955914431</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.51116435410487</v>
+        <v>8.756972058867465</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.61255037585176</v>
+        <v>12.92701301089317</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.39400651011746</v>
+        <v>18.7619200971055</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.98071148337397</v>
+        <v>7.373936293603952</v>
       </c>
       <c r="C3">
-        <v>6.862814214031284</v>
+        <v>5.840722907915868</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.79339196645394</v>
+        <v>12.96737368147768</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>15.36397523948823</v>
+        <v>22.65360064131114</v>
       </c>
       <c r="H3">
-        <v>7.718545164681305</v>
+        <v>12.95186815686374</v>
       </c>
       <c r="I3">
-        <v>11.47797096913936</v>
+        <v>18.62343492872452</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.97131930381714</v>
+        <v>8.514745323644695</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.70581342375555</v>
+        <v>12.72954518438232</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.61768530210879</v>
+        <v>18.86783593566925</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.51253730128186</v>
+        <v>7.11819658360023</v>
       </c>
       <c r="C4">
-        <v>6.689843899800422</v>
+        <v>5.772084483911598</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.26169119159287</v>
+        <v>12.85344494733653</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>15.52738260227638</v>
+        <v>22.76579128763034</v>
       </c>
       <c r="H4">
-        <v>7.806141351208989</v>
+        <v>12.98838321378037</v>
       </c>
       <c r="I4">
-        <v>11.66764682544033</v>
+        <v>18.69521970370205</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.62533263176793</v>
+        <v>8.361243886109346</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.11939654273989</v>
+        <v>12.60941274055197</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.76531241552964</v>
+        <v>18.9370219302552</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.3158852733262</v>
+        <v>7.010886177909661</v>
       </c>
       <c r="C5">
-        <v>6.618011889449575</v>
+        <v>5.743779119643774</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.04191377353576</v>
+        <v>12.80797213612557</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.60041645503153</v>
+        <v>22.81360913049919</v>
       </c>
       <c r="H5">
-        <v>7.842863782743501</v>
+        <v>13.00377128297473</v>
       </c>
       <c r="I5">
-        <v>11.746729503833</v>
+        <v>18.72540468092885</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.48079548171841</v>
+        <v>8.29755130468175</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.87297096106873</v>
+        <v>12.56079910879255</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.82794568175836</v>
+        <v>18.96625986032389</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28287941187358</v>
+        <v>6.992882730296933</v>
       </c>
       <c r="C6">
-        <v>6.606005201508379</v>
+        <v>5.73905956641196</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.00524060657469</v>
+        <v>12.80048089857949</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.61291992982467</v>
+        <v>22.82167573743813</v>
       </c>
       <c r="H6">
-        <v>7.849022915988736</v>
+        <v>13.00635715566068</v>
       </c>
       <c r="I6">
-        <v>11.75996849096535</v>
+        <v>18.73047321527299</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.45658459421135</v>
+        <v>8.286908247934145</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.83160234246282</v>
+        <v>12.55274925363583</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.83849222047533</v>
+        <v>18.97117784855183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50990883325745</v>
+        <v>7.11676178717189</v>
       </c>
       <c r="C7">
-        <v>6.688880496374962</v>
+        <v>5.771704069406613</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.25873940416764</v>
+        <v>12.85282773745683</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>15.52834205887463</v>
+        <v>22.76642768955178</v>
       </c>
       <c r="H7">
-        <v>7.806632474074434</v>
+        <v>12.98858868533195</v>
       </c>
       <c r="I7">
-        <v>11.66870615095433</v>
+        <v>18.69562301278586</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.62339755113566</v>
+        <v>8.360389435631186</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.11610333081069</v>
+        <v>12.60875565732701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.76614723358862</v>
+        <v>18.93741201613033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4600399959316</v>
+        <v>7.636061034266178</v>
       </c>
       <c r="C8">
-        <v>7.042592918113807</v>
+        <v>5.912752506539266</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.34944236617242</v>
+        <v>13.09202417443119</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>15.21291230495323</v>
+        <v>22.5410874039119</v>
       </c>
       <c r="H8">
-        <v>7.628639975585226</v>
+        <v>12.91463731246003</v>
       </c>
       <c r="I8">
-        <v>11.28175046397505</v>
+        <v>18.55001566895622</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.32809722518437</v>
+        <v>8.674477926773797</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.30606629799952</v>
+        <v>12.85873177604054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.46892444175053</v>
+        <v>18.79757768966983</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.13379084641019</v>
+        <v>8.552233314612792</v>
       </c>
       <c r="C9">
-        <v>7.688984120512818</v>
+        <v>6.176971004598331</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.38986077026125</v>
+        <v>13.58616981982573</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>14.83347686031488</v>
+        <v>22.16622717623811</v>
       </c>
       <c r="H9">
-        <v>7.313783487633149</v>
+        <v>12.78559196656377</v>
       </c>
       <c r="I9">
-        <v>10.58157500618945</v>
+        <v>18.29377350764356</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.59106682093384</v>
+        <v>9.25010760625025</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.40455121010618</v>
+        <v>13.3550817739148</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.97337507906576</v>
+        <v>18.55633039776461</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.24621604967658</v>
+        <v>9.160588682987481</v>
       </c>
       <c r="C10">
-        <v>8.132206668633286</v>
+        <v>6.362239398663512</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.99553784817774</v>
+        <v>13.96046702321408</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>14.7305304390517</v>
+        <v>21.9323273320692</v>
       </c>
       <c r="H10">
-        <v>7.105107934701335</v>
+        <v>12.70047608958126</v>
       </c>
       <c r="I10">
-        <v>10.10546093750088</v>
+        <v>18.12327180222737</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.44259190168057</v>
+        <v>9.645548618939513</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.80450352649121</v>
+        <v>13.71993905098042</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.67136107286647</v>
+        <v>18.39920265070506</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.72668382879401</v>
+        <v>9.422927891957205</v>
       </c>
       <c r="C11">
-        <v>8.326505268962007</v>
+        <v>6.444347140043043</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.69636675467927</v>
+        <v>14.13232620168121</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.72836047314325</v>
+        <v>21.83507543489763</v>
       </c>
       <c r="H11">
-        <v>7.015580325030787</v>
+        <v>12.66385056525596</v>
       </c>
       <c r="I11">
-        <v>9.897958851044406</v>
+        <v>18.04954211043944</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.81284560988221</v>
+        <v>9.818955828545064</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.41109999754013</v>
+        <v>13.8852315728951</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.54969305495476</v>
+        <v>18.33209470947934</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.90494542327386</v>
+        <v>9.520175910087124</v>
       </c>
       <c r="C12">
-        <v>8.398998492490126</v>
+        <v>6.475107350644313</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.95758526372802</v>
+        <v>14.19756267831148</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>14.73447770535331</v>
+        <v>21.79957652146926</v>
       </c>
       <c r="H12">
-        <v>6.982503460691918</v>
+        <v>12.65028195692421</v>
       </c>
       <c r="I12">
-        <v>9.820774603746175</v>
+        <v>18.02217230596693</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.95055977700788</v>
+        <v>9.883650655125193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.63650376896089</v>
+        <v>13.94766661398791</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.50609299387504</v>
+        <v>18.30731183689906</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86671728373913</v>
+        <v>9.499325254793375</v>
       </c>
       <c r="C13">
-        <v>8.383434379451154</v>
+        <v>6.468497667590858</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.90151115035711</v>
+        <v>14.18350696708443</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>14.73284368837697</v>
+        <v>21.80716257265713</v>
       </c>
       <c r="H13">
-        <v>6.989589600163231</v>
+        <v>12.65319083344712</v>
       </c>
       <c r="I13">
-        <v>9.837334126272854</v>
+        <v>18.02804243673809</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.92101185603443</v>
+        <v>9.869761214504555</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.58814947762798</v>
+        <v>13.93422804559313</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.51536945782785</v>
+        <v>18.31262126017032</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.74142328211557</v>
+        <v>9.430970626735686</v>
       </c>
       <c r="C14">
-        <v>8.332491194162488</v>
+        <v>6.446884568597581</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.71794039769432</v>
+        <v>14.13769050001474</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.7287218058667</v>
+        <v>21.8321282255748</v>
       </c>
       <c r="H14">
-        <v>7.012842227626047</v>
+        <v>12.66272824403717</v>
       </c>
       <c r="I14">
-        <v>9.891580396070038</v>
+        <v>18.04727936264812</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.82422555092352</v>
+        <v>9.824297973368141</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.4297299987813</v>
+        <v>13.8903716336046</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.54605519923617</v>
+        <v>18.33004318650421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.66419774265846</v>
+        <v>9.388828137007597</v>
       </c>
       <c r="C15">
-        <v>8.301145139563991</v>
+        <v>6.433602088633263</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.6049576997164</v>
+        <v>14.10964496210848</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.72711559804818</v>
+        <v>21.84759376088162</v>
       </c>
       <c r="H15">
-        <v>7.027194175106863</v>
+        <v>12.66860932827717</v>
       </c>
       <c r="I15">
-        <v>9.924991978353894</v>
+        <v>18.05913413463734</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.764615695116</v>
+        <v>9.796322926936845</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.33213492334884</v>
+        <v>13.86348605694195</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.56517981364892</v>
+        <v>18.34079662343525</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21430120634751</v>
+        <v>9.14315227126394</v>
       </c>
       <c r="C16">
-        <v>8.119358680583343</v>
+        <v>6.356828032138553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.94914849073997</v>
+        <v>13.94926146516917</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>14.73161565388826</v>
+        <v>21.9388681625812</v>
       </c>
       <c r="H16">
-        <v>7.111071454750914</v>
+        <v>12.7029117538334</v>
       </c>
       <c r="I16">
-        <v>10.11921143715291</v>
+        <v>18.12816723639999</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.41804766059095</v>
+        <v>9.634082230548318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.764256324188</v>
+        <v>13.70911792369346</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.67964638465538</v>
+        <v>18.40367633795826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.93174818810389</v>
+        <v>8.988730772852616</v>
       </c>
       <c r="C17">
-        <v>8.005938974481468</v>
+        <v>6.309158823957786</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.5393068214147</v>
+        <v>13.8512272001192</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>14.74618970938546</v>
+        <v>21.99721449406832</v>
       </c>
       <c r="H17">
-        <v>7.163943149478833</v>
+        <v>12.72449120773818</v>
       </c>
       <c r="I17">
-        <v>10.24074126286381</v>
+        <v>18.17149760256325</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.20103097656096</v>
+        <v>9.532864021118908</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.40816599018119</v>
+        <v>13.61420020285045</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.75403888262783</v>
+        <v>18.4433710298763</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.76682308823267</v>
+        <v>8.898556760603169</v>
       </c>
       <c r="C18">
-        <v>7.940014826040515</v>
+        <v>6.281537448566782</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.3007845355028</v>
+        <v>13.79499428987915</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>14.75874612327579</v>
+        <v>22.03163427753023</v>
       </c>
       <c r="H18">
-        <v>7.194858515710346</v>
+        <v>12.73710027224558</v>
       </c>
       <c r="I18">
-        <v>10.31149096945731</v>
+        <v>18.19678086611933</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.07459959119845</v>
+        <v>9.47403802365003</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.2005016955736</v>
+        <v>13.55954519444369</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.79829313748188</v>
+        <v>18.46661365118889</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.71056890288778</v>
+        <v>8.867793474428266</v>
       </c>
       <c r="C19">
-        <v>7.917576871447683</v>
+        <v>6.272151034490753</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.21954298578498</v>
+        <v>13.77598341030212</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>14.76369824658054</v>
+        <v>22.04343564175089</v>
       </c>
       <c r="H19">
-        <v>7.205411276718598</v>
+        <v>12.74140335672402</v>
       </c>
       <c r="I19">
-        <v>10.33558907993683</v>
+        <v>18.20540334280021</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.03151688035299</v>
+        <v>9.454017382078861</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.12969918731237</v>
+        <v>13.54103134360045</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.81352245323838</v>
+        <v>18.47455381233137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.9620757098421</v>
+        <v>9.005309608558713</v>
       </c>
       <c r="C20">
-        <v>8.018084152108218</v>
+        <v>6.314254482350028</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.58322355984127</v>
+        <v>13.86164771904513</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>14.74420248410041</v>
+        <v>21.99091427732561</v>
       </c>
       <c r="H20">
-        <v>7.158262273026017</v>
+        <v>12.72217363878069</v>
       </c>
       <c r="I20">
-        <v>10.22771577444593</v>
+        <v>18.16684767928445</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.22429957841685</v>
+        <v>9.543702087645739</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.44636710643953</v>
+        <v>13.62431109105808</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.74596650984948</v>
+        <v>18.43910288867076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77832505741421</v>
+        <v>9.451105028204559</v>
       </c>
       <c r="C21">
-        <v>8.347484055881907</v>
+        <v>6.453242028148547</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.77197200694886</v>
+        <v>14.15114420359785</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>14.72974019044176</v>
+        <v>21.82475905931151</v>
       </c>
       <c r="H21">
-        <v>7.005989546355773</v>
+        <v>12.65991871837002</v>
       </c>
       <c r="I21">
-        <v>9.875608390242991</v>
+        <v>18.04161409177131</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.85272190310972</v>
+        <v>9.837678263508955</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.47637794854792</v>
+        <v>13.90325806643816</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.53697314176034</v>
+        <v>18.32490885295937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.29033851413326</v>
+        <v>9.730244743418075</v>
       </c>
       <c r="C22">
-        <v>8.556441096256439</v>
+        <v>6.542133710171615</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.52462927378397</v>
+        <v>14.34123091252304</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.76095269289344</v>
+        <v>21.72391506053783</v>
       </c>
       <c r="H22">
-        <v>6.911308642484837</v>
+        <v>12.6209839470609</v>
       </c>
       <c r="I22">
-        <v>9.653654741167642</v>
+        <v>17.96297223980613</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.24889322077272</v>
+        <v>10.02413538431492</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.12450679467972</v>
+        <v>14.08462115241313</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.41491164146503</v>
+        <v>18.25394587749267</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01902925639744</v>
+        <v>9.582386365656667</v>
       </c>
       <c r="C23">
-        <v>8.445503880623638</v>
+        <v>6.494874739307726</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.1251099421296</v>
+        <v>14.23972032690105</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.74040969167286</v>
+        <v>21.77702430357407</v>
       </c>
       <c r="H23">
-        <v>6.961381007779954</v>
+        <v>12.64160396309068</v>
       </c>
       <c r="I23">
-        <v>9.771334843714422</v>
+        <v>18.00465190737501</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.03878779752164</v>
+        <v>9.925150601103178</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.78086173316298</v>
+        <v>13.98792978286422</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.47865329936351</v>
+        <v>18.29148404701339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.94837236662292</v>
+        <v>8.997818660403999</v>
       </c>
       <c r="C24">
-        <v>8.012595550272192</v>
+        <v>6.311951405580269</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.56337783807876</v>
+        <v>13.8569361973612</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>14.74508793593918</v>
+        <v>21.99375987850619</v>
       </c>
       <c r="H24">
-        <v>7.160828985163005</v>
+        <v>12.7232207801161</v>
       </c>
       <c r="I24">
-        <v>10.23360186117151</v>
+        <v>18.16894875057023</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.21378502892416</v>
+        <v>9.538804170511153</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.42910555284143</v>
+        <v>13.61974022039879</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.74961141991759</v>
+        <v>18.44103120207527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70151207371828</v>
+        <v>8.315611873147366</v>
       </c>
       <c r="C25">
-        <v>7.519503324729385</v>
+        <v>6.106957464342857</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.83969545988267</v>
+        <v>13.45022094327532</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>14.90745401270643</v>
+        <v>22.26039454635547</v>
       </c>
       <c r="H25">
-        <v>7.395130053651343</v>
+        <v>12.81879674118956</v>
       </c>
       <c r="I25">
-        <v>10.76448523208519</v>
+        <v>18.35996811206248</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.26258850174984</v>
+        <v>9.099016868962927</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.86190262055653</v>
+        <v>13.22051916333757</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.09723493480702</v>
+        <v>18.61806311399087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_229/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.76996414094062</v>
+        <v>12.70475409151899</v>
       </c>
       <c r="C2">
-        <v>5.950183189536349</v>
+        <v>7.135360208381742</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.15868052146605</v>
+        <v>14.63764158527889</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>22.48454416139465</v>
+        <v>15.14253788438697</v>
       </c>
       <c r="H2">
-        <v>12.89568284388557</v>
+        <v>7.582668481927928</v>
       </c>
       <c r="I2">
-        <v>18.51254955914431</v>
+        <v>11.1807988485562</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.756972058867465</v>
+        <v>11.51116435410485</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.92701301089317</v>
+        <v>14.61255037585182</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.7619200971055</v>
+        <v>11.39400651011731</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.373936293603952</v>
+        <v>11.98071148337401</v>
       </c>
       <c r="C3">
-        <v>5.840722907915868</v>
+        <v>6.862814214031351</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.96737368147768</v>
+        <v>13.79339196645394</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>22.65360064131114</v>
+        <v>15.36397523948805</v>
       </c>
       <c r="H3">
-        <v>12.95186815686374</v>
+        <v>7.718545164681241</v>
       </c>
       <c r="I3">
-        <v>18.62343492872452</v>
+        <v>11.47797096913923</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.514745323644695</v>
+        <v>10.97131930381718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.72954518438232</v>
+        <v>13.7058134237556</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.86783593566925</v>
+        <v>11.61768530210868</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.11819658360023</v>
+        <v>11.51253730128195</v>
       </c>
       <c r="C4">
-        <v>5.772084483911598</v>
+        <v>6.689843899800198</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.85344494733653</v>
+        <v>13.26169119159288</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>22.76579128763034</v>
+        <v>15.5273826022764</v>
       </c>
       <c r="H4">
-        <v>12.98838321378037</v>
+        <v>7.806141351208987</v>
       </c>
       <c r="I4">
-        <v>18.69521970370205</v>
+        <v>11.66764682544024</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.361243886109346</v>
+        <v>10.62533263176793</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.60941274055197</v>
+        <v>13.11939654273988</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.9370219302552</v>
+        <v>11.76531241552965</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.010886177909661</v>
+        <v>11.3158852733263</v>
       </c>
       <c r="C5">
-        <v>5.743779119643774</v>
+        <v>6.618011889449327</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.80797213612557</v>
+        <v>13.04191377353572</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>22.81360913049919</v>
+        <v>15.60041645503189</v>
       </c>
       <c r="H5">
-        <v>13.00377128297473</v>
+        <v>7.842863782743696</v>
       </c>
       <c r="I5">
-        <v>18.72540468092885</v>
+        <v>11.74672950383315</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.29755130468175</v>
+        <v>10.4807954817184</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.56079910879255</v>
+        <v>12.87297096106875</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.96625986032389</v>
+        <v>11.82794568175856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.992882730296933</v>
+        <v>11.28287941187363</v>
       </c>
       <c r="C6">
-        <v>5.73905956641196</v>
+        <v>6.606005201508175</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.80048089857949</v>
+        <v>13.0052406065747</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>22.82167573743813</v>
+        <v>15.6129199298247</v>
       </c>
       <c r="H6">
-        <v>13.00635715566068</v>
+        <v>7.849022915988736</v>
       </c>
       <c r="I6">
-        <v>18.73047321527299</v>
+        <v>11.75996849096528</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.286908247934145</v>
+        <v>10.45658459421135</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.55274925363583</v>
+        <v>12.83160234246284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.97117784855183</v>
+        <v>11.83849222047533</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.11676178717189</v>
+        <v>11.50990883325746</v>
       </c>
       <c r="C7">
-        <v>5.771704069406613</v>
+        <v>6.688880496374865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.85282773745683</v>
+        <v>13.25873940416762</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>22.76642768955178</v>
+        <v>15.52834205887449</v>
       </c>
       <c r="H7">
-        <v>12.98858868533195</v>
+        <v>7.806632474074301</v>
       </c>
       <c r="I7">
-        <v>18.69562301278586</v>
+        <v>11.66870615095423</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.360389435631186</v>
+        <v>10.62339755113571</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.60875565732701</v>
+        <v>13.11610333081073</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.93741201613033</v>
+        <v>11.76614723358846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.636061034266178</v>
+        <v>12.46003999593166</v>
       </c>
       <c r="C8">
-        <v>5.912752506539266</v>
+        <v>7.04259291811368</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.09202417443119</v>
+        <v>14.34944236617243</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>22.5410874039119</v>
+        <v>15.21291230495336</v>
       </c>
       <c r="H8">
-        <v>12.91463731246003</v>
+        <v>7.628639975585284</v>
       </c>
       <c r="I8">
-        <v>18.55001566895622</v>
+        <v>11.28175046397505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.674477926773797</v>
+        <v>11.32809722518433</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.85873177604054</v>
+        <v>14.30606629799954</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.79757768966983</v>
+        <v>11.46892444175058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.552233314612792</v>
+        <v>14.13379084641004</v>
       </c>
       <c r="C9">
-        <v>6.176971004598331</v>
+        <v>7.688984120513111</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.58616981982573</v>
+        <v>16.38986077026117</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>22.16622717623811</v>
+        <v>14.83347686031483</v>
       </c>
       <c r="H9">
-        <v>12.78559196656377</v>
+        <v>7.313783487633208</v>
       </c>
       <c r="I9">
-        <v>18.29377350764356</v>
+        <v>10.58157500618955</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.25010760625025</v>
+        <v>12.5910668209338</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.3550817739148</v>
+        <v>16.4045512101061</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.55633039776461</v>
+        <v>10.97337507906577</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.160588682987481</v>
+        <v>15.24621604967659</v>
       </c>
       <c r="C10">
-        <v>6.362239398663512</v>
+        <v>8.132206668633179</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.96046702321408</v>
+        <v>17.99553784817772</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>21.9323273320692</v>
+        <v>14.73053043905187</v>
       </c>
       <c r="H10">
-        <v>12.70047608958126</v>
+        <v>7.105107934701286</v>
       </c>
       <c r="I10">
-        <v>18.12327180222737</v>
+        <v>10.10546093750093</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.645548618939513</v>
+        <v>13.44259190168057</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.71993905098042</v>
+        <v>17.8045035264912</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.39920265070506</v>
+        <v>10.67136107286651</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.422927891957205</v>
+        <v>15.72668382879401</v>
       </c>
       <c r="C11">
-        <v>6.444347140043043</v>
+        <v>8.326505268961954</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.13232620168121</v>
+        <v>18.69636675467926</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>21.83507543489763</v>
+        <v>14.72836047314338</v>
       </c>
       <c r="H11">
-        <v>12.66385056525596</v>
+        <v>7.015580325030799</v>
       </c>
       <c r="I11">
-        <v>18.04954211043944</v>
+        <v>9.897958851044422</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.818955828545064</v>
+        <v>13.81284560988219</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.8852315728951</v>
+        <v>18.41109999754011</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.33209470947934</v>
+        <v>10.54969305495478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.520175910087124</v>
+        <v>15.9049454232739</v>
       </c>
       <c r="C12">
-        <v>6.475107350644313</v>
+        <v>8.398998492490021</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.19756267831148</v>
+        <v>18.95758526372801</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.79957652146926</v>
+        <v>14.73447770535342</v>
       </c>
       <c r="H12">
-        <v>12.65028195692421</v>
+        <v>6.982503460691921</v>
       </c>
       <c r="I12">
-        <v>18.02217230596693</v>
+        <v>9.82077460374618</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.883650655125193</v>
+        <v>13.9505597770079</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.94766661398791</v>
+        <v>18.63650376896089</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.30731183689906</v>
+        <v>10.50609299387509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.499325254793375</v>
+        <v>15.86671728373915</v>
       </c>
       <c r="C13">
-        <v>6.468497667590858</v>
+        <v>8.383434379451128</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.18350696708443</v>
+        <v>18.90151115035713</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>21.80716257265713</v>
+        <v>14.73284368837704</v>
       </c>
       <c r="H13">
-        <v>12.65319083344712</v>
+        <v>6.98958960016319</v>
       </c>
       <c r="I13">
-        <v>18.02804243673809</v>
+        <v>9.837334126272779</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.869761214504555</v>
+        <v>13.92101185603441</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.93422804559313</v>
+        <v>18.58814947762798</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.31262126017032</v>
+        <v>10.51536945782775</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.430970626735686</v>
+        <v>15.74142328211554</v>
       </c>
       <c r="C14">
-        <v>6.446884568597581</v>
+        <v>8.332491194162486</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.13769050001474</v>
+        <v>18.71794039769432</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>21.8321282255748</v>
+        <v>14.72872180586669</v>
       </c>
       <c r="H14">
-        <v>12.66272824403717</v>
+        <v>7.012842227626047</v>
       </c>
       <c r="I14">
-        <v>18.04727936264812</v>
+        <v>9.891580396070019</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.824297973368141</v>
+        <v>13.82422555092352</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.8903716336046</v>
+        <v>18.42972999878128</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.33004318650421</v>
+        <v>10.54605519923613</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.388828137007597</v>
+        <v>15.66419774265853</v>
       </c>
       <c r="C15">
-        <v>6.433602088633263</v>
+        <v>8.301145139563674</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.10964496210848</v>
+        <v>18.60495769971642</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>21.84759376088162</v>
+        <v>14.72711559804842</v>
       </c>
       <c r="H15">
-        <v>12.66860932827717</v>
+        <v>7.027194175106873</v>
       </c>
       <c r="I15">
-        <v>18.05913413463734</v>
+        <v>9.924991978354001</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.796322926936845</v>
+        <v>13.76461569511593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.86348605694195</v>
+        <v>18.33213492334884</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.34079662343525</v>
+        <v>10.5651798136491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.14315227126394</v>
+        <v>15.21430120634751</v>
       </c>
       <c r="C16">
-        <v>6.356828032138553</v>
+        <v>8.119358680583234</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.94926146516917</v>
+        <v>17.94914849074</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>21.9388681625812</v>
+        <v>14.73161565388815</v>
       </c>
       <c r="H16">
-        <v>12.7029117538334</v>
+        <v>7.111071454750853</v>
       </c>
       <c r="I16">
-        <v>18.12816723639999</v>
+        <v>10.11921143715277</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.634082230548318</v>
+        <v>13.41804766059093</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.70911792369346</v>
+        <v>17.76425632418803</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.40367633795826</v>
+        <v>10.67964638465526</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.988730772852616</v>
+        <v>14.9317481881039</v>
       </c>
       <c r="C17">
-        <v>6.309158823957786</v>
+        <v>8.005938974481538</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.8512272001192</v>
+        <v>17.53930682141468</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>21.99721449406832</v>
+        <v>14.74618970938563</v>
       </c>
       <c r="H17">
-        <v>12.72449120773818</v>
+        <v>7.163943149478845</v>
       </c>
       <c r="I17">
-        <v>18.17149760256325</v>
+        <v>10.24074126286386</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.532864021118908</v>
+        <v>13.20103097656097</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.61420020285045</v>
+        <v>17.4081659901812</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.4433710298763</v>
+        <v>10.75403888262789</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.898556760603169</v>
+        <v>14.76682308823264</v>
       </c>
       <c r="C18">
-        <v>6.281537448566782</v>
+        <v>7.940014826040581</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.79499428987915</v>
+        <v>17.30078453550281</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>22.03163427753023</v>
+        <v>14.75874612327583</v>
       </c>
       <c r="H18">
-        <v>12.73710027224558</v>
+        <v>7.194858515710417</v>
       </c>
       <c r="I18">
-        <v>18.19678086611933</v>
+        <v>10.31149096945738</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.47403802365003</v>
+        <v>13.07459959119843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.55954519444369</v>
+        <v>17.20050169557359</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.46661365118889</v>
+        <v>10.7982931374819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.867793474428266</v>
+        <v>14.71056890288773</v>
       </c>
       <c r="C19">
-        <v>6.272151034490753</v>
+        <v>7.917576871447669</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.77598341030212</v>
+        <v>17.21954298578502</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>22.04343564175089</v>
+        <v>14.76369824658051</v>
       </c>
       <c r="H19">
-        <v>12.74140335672402</v>
+        <v>7.205411276718475</v>
       </c>
       <c r="I19">
-        <v>18.20540334280021</v>
+        <v>10.33558907993673</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.454017382078861</v>
+        <v>13.03151688035294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.54103134360045</v>
+        <v>17.12969918731237</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.47455381233137</v>
+        <v>10.81352245323829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.005309608558713</v>
+        <v>14.96207570984208</v>
       </c>
       <c r="C20">
-        <v>6.314254482350028</v>
+        <v>8.018084152108232</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.86164771904513</v>
+        <v>17.58322355984127</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>21.99091427732561</v>
+        <v>14.74420248410038</v>
       </c>
       <c r="H20">
-        <v>12.72217363878069</v>
+        <v>7.158262273025899</v>
       </c>
       <c r="I20">
-        <v>18.16684767928445</v>
+        <v>10.22771577444586</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.543702087645739</v>
+        <v>13.22429957841686</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.62431109105808</v>
+        <v>17.44636710643955</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.43910288867076</v>
+        <v>10.7459665098494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.451105028204559</v>
+        <v>15.77832505741431</v>
       </c>
       <c r="C21">
-        <v>6.453242028148547</v>
+        <v>8.347484055881775</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.15114420359785</v>
+        <v>18.77197200694895</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>21.82475905931151</v>
+        <v>14.72974019044182</v>
       </c>
       <c r="H21">
-        <v>12.65991871837002</v>
+        <v>7.005989546355671</v>
       </c>
       <c r="I21">
-        <v>18.04161409177131</v>
+        <v>9.875608390242952</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.837678263508955</v>
+        <v>13.85272190310975</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.90325806643816</v>
+        <v>18.47637794854797</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.32490885295937</v>
+        <v>10.53697314176032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.730244743418075</v>
+        <v>16.29033851413322</v>
       </c>
       <c r="C22">
-        <v>6.542133710171615</v>
+        <v>8.556441096256533</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.34123091252304</v>
+        <v>19.52462927378395</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.72391506053783</v>
+        <v>14.7609526928935</v>
       </c>
       <c r="H22">
-        <v>12.6209839470609</v>
+        <v>6.911308642484892</v>
       </c>
       <c r="I22">
-        <v>17.96297223980613</v>
+        <v>9.653654741167699</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.02413538431492</v>
+        <v>14.24889322077269</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.08462115241313</v>
+        <v>19.12450679467971</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.25394587749267</v>
+        <v>10.41491164146508</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.582386365656667</v>
+        <v>16.01902925639744</v>
       </c>
       <c r="C23">
-        <v>6.494874739307726</v>
+        <v>8.445503880623557</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.23972032690105</v>
+        <v>19.12510994212962</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>21.77702430357407</v>
+        <v>14.740409691673</v>
       </c>
       <c r="H23">
-        <v>12.64160396309068</v>
+        <v>6.961381007780139</v>
       </c>
       <c r="I23">
-        <v>18.00465190737501</v>
+        <v>9.771334843714612</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.925150601103178</v>
+        <v>14.03878779752162</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.98792978286422</v>
+        <v>18.78086173316298</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.29148404701339</v>
+        <v>10.47865329936365</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.997818660403999</v>
+        <v>14.94837236662293</v>
       </c>
       <c r="C24">
-        <v>6.311951405580269</v>
+        <v>8.012595550272328</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.8569361973612</v>
+        <v>17.56337783807878</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>21.99375987850619</v>
+        <v>14.7450879359394</v>
       </c>
       <c r="H24">
-        <v>12.7232207801161</v>
+        <v>7.160828985162899</v>
       </c>
       <c r="I24">
-        <v>18.16894875057023</v>
+        <v>10.23360186117155</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.538804170511153</v>
+        <v>13.21378502892418</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.61974022039879</v>
+        <v>17.42910555284145</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.44103120207527</v>
+        <v>10.74961141991758</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.315611873147366</v>
+        <v>13.70151207371832</v>
       </c>
       <c r="C25">
-        <v>6.106957464342857</v>
+        <v>7.519503324729532</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.45022094327532</v>
+        <v>15.83969545988269</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>22.26039454635547</v>
+        <v>14.90745401270638</v>
       </c>
       <c r="H25">
-        <v>12.81879674118956</v>
+        <v>7.39513005365135</v>
       </c>
       <c r="I25">
-        <v>18.35996811206248</v>
+        <v>10.76448523208521</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.099016868962927</v>
+        <v>12.26258850174984</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.22051916333757</v>
+        <v>15.86190262055657</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.61806311399087</v>
+        <v>11.09723493480703</v>
       </c>
     </row>
   </sheetData>
